--- a/combined_modifications.xlsx
+++ b/combined_modifications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olhak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_laptopdell\solomia\OP\week12\2sat_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B82AC-E674-4675-9ACF-C584E0EA991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10487324-CBF9-45E5-8797-EFC7E4A7808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modifications" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Тен для нагрівання</t>
   </si>
   <si>
-    <t>Канал води для прочистка</t>
-  </si>
-  <si>
     <t>Потужніший насос</t>
   </si>
   <si>
@@ -102,13 +99,16 @@
   </si>
   <si>
     <t>must id</t>
+  </si>
+  <si>
+    <t>Канал води для прочистки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +121,45 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -157,11 +189,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,248 +511,249 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -727,13 +772,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -765,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
